--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>Key</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>Wolfcamp_Well_A213</t>
+  </si>
+  <si>
+    <t>Wolfcamp_Pad_A785</t>
+  </si>
+  <si>
+    <t>Wolfcamp_Well_A979</t>
+  </si>
+  <si>
+    <t>Wolfcamp_Pad_A205</t>
+  </si>
+  <si>
+    <t>Wolfcamp_Well_A577</t>
   </si>
 </sst>
 </file>
@@ -664,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
